--- a/afisha.xlsx
+++ b/afisha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergej/StudioProjects/Egolist/egolist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5855C0A0-FD99-984A-B57C-03E5C8F54582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315D354B-E362-B845-8453-279FEA53B335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{C580A3C3-98DD-0143-B76E-E77FC3D5C218}"/>
+    <workbookView xWindow="-36180" yWindow="840" windowWidth="34560" windowHeight="19880" xr2:uid="{C580A3C3-98DD-0143-B76E-E77FC3D5C218}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Отметка о публикации</t>
   </si>
@@ -77,78 +77,13 @@
   </si>
   <si>
     <t>Видео URL 1</t>
-  </si>
-  <si>
-    <t>Майстер-класи</t>
-  </si>
-  <si>
-    <t>Безкоштовно</t>
-  </si>
-  <si>
-    <t>Дніпро</t>
-  </si>
-  <si>
-    <t>Online</t>
-  </si>
-  <si>
-    <t>м. Дніпро</t>
-  </si>
-  <si>
-    <t>Активний відпочинок</t>
-  </si>
-  <si>
-    <t>В цю суботу 21 вересня з 17:00 до 20:00  танцюємо, заряджаємо позитивними емоціями та гарним настроєм 🤩! 
-Цього разу вечірка для тих, хто вважає, що буде 52 серпня. Тих, кому ще мало було літа і хочеться продовження. Для тих, в кого ще продовжується літо.</t>
-  </si>
-  <si>
-    <t>ДРЕСС-КОД: літній одяг 
-В нас працюють відеографи 📸 Video Shaika і будуть чудові фото та відео 😎!!! 
-💃 Танцюємо: 
-- Salsa 
-- Zouk 
-- Bachata 
-- Kizomba 
---Rueda de Casino</t>
-  </si>
-  <si>
-    <t>Latina Party in Dnipro</t>
-  </si>
-  <si>
-    <t>м. Дніпро, вул. Яворницького 57, 5 пов./зала 512</t>
-  </si>
-  <si>
-    <t>https://t.me/ZUEVDANCE</t>
-  </si>
-  <si>
-    <t>(098) 065 85 58</t>
-  </si>
-  <si>
-    <t>https://i.ibb.co/r3d2k6w/12.jpg</t>
-  </si>
-  <si>
-    <t>Більшість IT-компаній втрачають великі гроші через банальні помилки у плануванні та бюджетуванні. Як уникнути фатальних помилок в IT? 
-Зануритись у світ фінансів в IT допоможе Петро Яворський — Lead Financial Partner at Luxoft на безкоштовній онлайн лекції</t>
-  </si>
-  <si>
-    <t>Про що розкажуть: 
-✔️ Важливість планування та основні користувачі фінансової інформації 
-✔️ Специфіка роботи з фінансами в інформаційному бізнесі 
-✔️ Релевантні фінансові показники: виручка, витрати, маржа, показники ліквідності та інше 
-✔️ Як правильно зробити прогнози доходів та витрат 
-✔️ Розберемо фатальні помилки при складанні бюджетів</t>
-  </si>
-  <si>
-    <t>https://bit.ly/3ZtTsPp</t>
-  </si>
-  <si>
-    <t>https://i.ibb.co/bgbRbHG/6.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -191,21 +126,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -224,35 +144,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -568,16 +482,17 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="26.83203125" customWidth="1"/>
     <col min="3" max="3" width="70.33203125" customWidth="1"/>
+    <col min="14" max="14" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -622,94 +537,12 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="6">
-        <v>200</v>
-      </c>
-      <c r="F2" s="8">
-        <v>45556</v>
-      </c>
-      <c r="G2" s="9">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="6"/>
+      <c r="A2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="8">
-        <v>45584</v>
-      </c>
-      <c r="G3" s="9">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="6"/>
+      <c r="A3" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{FA15ADA4-9804-B94D-978F-1D8D0729A0A3}"/>
-    <hyperlink ref="M2" r:id="rId2" xr:uid="{CB83C0F6-A199-A44F-862B-8F65A24AA627}"/>
-    <hyperlink ref="K3" r:id="rId3" xr:uid="{AA5F87D9-96FD-254D-BF4D-53B541F97C4B}"/>
-    <hyperlink ref="M3" r:id="rId4" xr:uid="{105F9D06-EE85-B247-8205-6E7DE885EDD6}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
